--- a/DataConvert/bin/Debug/策划/xlsx/数值/test.xlsx
+++ b/DataConvert/bin/Debug/策划/xlsx/数值/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tidys\AppData\Local\YNote\GroupFileDir\xu_yanfeng@126.com\87432733\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\excelToJson\DataConvert\bin\Debug\策划\xlsx\数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="item" sheetId="9" r:id="rId2"/>
     <sheet name="itemEffect" sheetId="19" r:id="rId3"/>
     <sheet name="material" sheetId="6" r:id="rId4"/>
-    <sheet name="ID标准" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -338,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="293">
   <si>
     <t>素材ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,204 +533,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>道具名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NPC</t>
-  </si>
-  <si>
-    <t>主角</t>
-  </si>
-  <si>
-    <t>主角ICON</t>
-  </si>
-  <si>
-    <t>主角动作</t>
-  </si>
-  <si>
-    <t>怪物</t>
-  </si>
-  <si>
-    <t>怪物ICON</t>
-  </si>
-  <si>
-    <t>怪物动作</t>
-  </si>
-  <si>
-    <t>素材</t>
-  </si>
-  <si>
-    <t>魔法石</t>
-  </si>
-  <si>
-    <t>魔法石ICON</t>
-  </si>
-  <si>
-    <t>道具</t>
-  </si>
-  <si>
-    <t>道具ICON</t>
-  </si>
-  <si>
-    <t>符文</t>
-  </si>
-  <si>
-    <t>符文ICON</t>
-  </si>
-  <si>
-    <t>符文爆发ICON</t>
-  </si>
-  <si>
-    <t>主角技能特效·起始</t>
-  </si>
-  <si>
-    <t>主角技能特效·发出</t>
-  </si>
-  <si>
-    <t>主角技能特效·爆炸</t>
-  </si>
-  <si>
-    <t>属性特效·起始</t>
-  </si>
-  <si>
-    <t>属性特效·发出</t>
-  </si>
-  <si>
-    <t>属性特效·爆炸</t>
-  </si>
-  <si>
-    <t>怪物模板</t>
-  </si>
-  <si>
-    <t>主角模板</t>
-  </si>
-  <si>
-    <t>魔法石模板</t>
-  </si>
-  <si>
-    <t>00100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01300000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00300000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03300000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05300000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11600010_png</t>
   </si>
   <si>
@@ -1075,108 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0014</t>
-  </si>
-  <si>
-    <t>0015</t>
-  </si>
-  <si>
-    <t>0016</t>
-  </si>
-  <si>
-    <t>0017</t>
-  </si>
-  <si>
-    <t>0018</t>
-  </si>
-  <si>
-    <t>0019</t>
-  </si>
-  <si>
-    <t>0020</t>
-  </si>
-  <si>
-    <t>0021</t>
-  </si>
-  <si>
-    <t>0022</t>
-  </si>
-  <si>
-    <t>0023</t>
-  </si>
-  <si>
-    <t>0024</t>
-  </si>
-  <si>
-    <t>0025</t>
-  </si>
-  <si>
-    <t>0026</t>
-  </si>
-  <si>
-    <t>0027</t>
-  </si>
-  <si>
-    <t>0028</t>
-  </si>
-  <si>
-    <t>0029</t>
-  </si>
-  <si>
-    <t>0030</t>
-  </si>
-  <si>
-    <t>0031</t>
-  </si>
-  <si>
-    <t>0032</t>
-  </si>
-  <si>
-    <t>0033</t>
-  </si>
-  <si>
-    <t>0034</t>
-  </si>
-  <si>
-    <t>0035</t>
-  </si>
-  <si>
-    <t>0036</t>
-  </si>
-  <si>
-    <t>0037</t>
-  </si>
-  <si>
-    <t>0038</t>
-  </si>
-  <si>
-    <t>0039</t>
-  </si>
-  <si>
-    <t>0040</t>
-  </si>
-  <si>
-    <t>0041</t>
-  </si>
-  <si>
-    <t>0042</t>
-  </si>
-  <si>
-    <t>0043</t>
-  </si>
-  <si>
-    <t>0044</t>
-  </si>
-  <si>
-    <t>0045</t>
-  </si>
-  <si>
-    <t>0046</t>
-  </si>
-  <si>
-    <t>0047</t>
-  </si>
-  <si>
     <t>复活魔法曾是一种禁忌，直到战争利剑砍断了禁忌枷锁。使用后复活一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1471,13 +1174,188 @@
   </si>
   <si>
     <t>商城价格</t>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>3013</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t>3015</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>3018</t>
+  </si>
+  <si>
+    <t>3019</t>
+  </si>
+  <si>
+    <t>3020</t>
+  </si>
+  <si>
+    <t>3021</t>
+  </si>
+  <si>
+    <t>3022</t>
+  </si>
+  <si>
+    <t>3023</t>
+  </si>
+  <si>
+    <t>3024</t>
+  </si>
+  <si>
+    <t>3025</t>
+  </si>
+  <si>
+    <t>3026</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>3029</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>3031</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>3033</t>
+  </si>
+  <si>
+    <t>3034</t>
+  </si>
+  <si>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>3036</t>
+  </si>
+  <si>
+    <t>3037</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>3039</t>
+  </si>
+  <si>
+    <t>3040</t>
+  </si>
+  <si>
+    <t>3041</t>
+  </si>
+  <si>
+    <t>3042</t>
+  </si>
+  <si>
+    <t>3043</t>
+  </si>
+  <si>
+    <t>3044</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>3047</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1509,13 +1387,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -1529,7 +1400,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,12 +1410,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,64 +1426,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1627,7 +1440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1637,29 +1450,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1679,13 +1474,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2019,31 +1814,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2057,9 +1852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:M12"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2070,45 +1865,45 @@
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>322</v>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2116,7 +1911,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -2128,42 +1923,42 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>289</v>
+        <v>72</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
+      <c r="A3" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>312</v>
+      <c r="C3" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2183,28 +1978,28 @@
       <c r="J3">
         <v>5</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
+      <c r="A4" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>313</v>
+      <c r="C4" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -2224,28 +2019,28 @@
       <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>54</v>
+      <c r="A5" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>320</v>
+      <c r="C5" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -2265,28 +2060,28 @@
       <c r="J5">
         <v>5</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M5">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>60</v>
+      <c r="A6" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>314</v>
+      <c r="C6" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -2306,28 +2101,28 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M6">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
+      <c r="A7" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>315</v>
+      <c r="C7" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -2347,28 +2142,28 @@
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M7">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>57</v>
+      <c r="A8" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>317</v>
+      <c r="C8" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -2388,28 +2183,28 @@
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M8">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>58</v>
+      <c r="A9" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>316</v>
+      <c r="C9" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -2429,28 +2224,28 @@
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M9">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>55</v>
+      <c r="A10" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>319</v>
+      <c r="C10" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -2470,28 +2265,28 @@
       <c r="J10">
         <v>5</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="5">
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M10">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
+      <c r="A11" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>318</v>
+      <c r="C11" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>18</v>
@@ -2511,28 +2306,28 @@
       <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="5">
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M11">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>61</v>
+      <c r="A12" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>238</v>
+      <c r="C12" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>60</v>
@@ -2552,11 +2347,11 @@
       <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="5">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="M12">
         <v>19</v>
@@ -2575,12 +2370,12 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="9" style="19"/>
+    <col min="4" max="4" width="9" style="13"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
@@ -2589,514 +2384,514 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>300</v>
+      <c r="A1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>308</v>
+      <c r="B2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="A3" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <v>-1</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="5">
         <v>50</v>
       </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="A4" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>200</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>-1</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="5">
         <v>50</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="A5" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>700</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>-1</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="5">
         <v>70</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="A6" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <v>30</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="A7" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <v>50</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>200</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2</v>
-      </c>
-      <c r="D10" s="19">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13">
         <v>15</v>
       </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="19">
-        <v>15</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19">
-        <v>15</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="19">
-        <v>15</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2</v>
-      </c>
-      <c r="D14" s="19">
-        <v>15</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2</v>
-      </c>
-      <c r="D15" s="19">
-        <v>15</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2</v>
-      </c>
-      <c r="D16" s="19">
-        <v>15</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>7</v>
       </c>
     </row>
@@ -3112,129 +2907,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3:N49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="19.5" style="11"/>
+    <col min="1" max="1" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="19.5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="E1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>324</v>
+        <v>72</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>62</v>
+      <c r="A3" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>239</v>
+        <v>109</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="11">
-        <v>5</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11">
         <v>0</v>
       </c>
       <c r="G3">
@@ -3255,30 +3050,30 @@
       <c r="L3">
         <v>5</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="M3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
-        <v>56</v>
+      <c r="A4" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>240</v>
+      <c r="C4" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="11">
-        <v>2</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4">
@@ -3299,30 +3094,30 @@
       <c r="L4">
         <v>5</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N4" s="11">
+      <c r="M4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>63</v>
+      <c r="A5" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>241</v>
+      <c r="C5" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="11">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5">
@@ -3343,30 +3138,30 @@
       <c r="L5">
         <v>5</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="M5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>64</v>
+      <c r="A6" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>242</v>
+        <v>110</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="11">
-        <v>3</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
       <c r="G6">
@@ -3387,30 +3182,30 @@
       <c r="L6">
         <v>5</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="M6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N6" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>65</v>
+      <c r="A7" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>243</v>
+        <v>111</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="5">
         <v>8</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
       <c r="G7">
@@ -3431,30 +3226,30 @@
       <c r="L7">
         <v>5</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="M7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N7" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>66</v>
+      <c r="A8" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>244</v>
+      <c r="C8" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="11">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11">
         <v>0</v>
       </c>
       <c r="G8">
@@ -3475,30 +3270,30 @@
       <c r="L8">
         <v>5</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="M8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N8" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>58</v>
+      <c r="A9" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>245</v>
+      <c r="C9" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="11">
-        <v>3</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11">
         <v>5</v>
       </c>
       <c r="G9">
@@ -3519,30 +3314,30 @@
       <c r="L9">
         <v>5</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="M9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N9" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>67</v>
+      <c r="A10" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>246</v>
+        <v>112</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="11">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
         <v>0</v>
       </c>
       <c r="G10">
@@ -3563,30 +3358,30 @@
       <c r="L10">
         <v>5</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="M10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N10" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>59</v>
+      <c r="A11" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>247</v>
+      <c r="C11" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="11">
         <v>1</v>
       </c>
       <c r="G11">
@@ -3607,30 +3402,30 @@
       <c r="L11">
         <v>5</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="M11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N11" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>68</v>
+      <c r="A12" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>248</v>
+        <v>113</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="11">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11">
         <v>0</v>
       </c>
       <c r="G12">
@@ -3651,30 +3446,30 @@
       <c r="L12">
         <v>5</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="M12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N12" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>69</v>
+      <c r="A13" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>249</v>
+      <c r="C13" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="5">
         <v>7</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <v>0</v>
       </c>
       <c r="G13">
@@ -3695,30 +3490,30 @@
       <c r="L13">
         <v>5</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N13" s="11">
+      <c r="M13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N13" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>70</v>
+      <c r="A14" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>250</v>
+      <c r="C14" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="11">
-        <v>4</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="E14" s="5">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11">
         <v>3</v>
       </c>
       <c r="G14">
@@ -3739,30 +3534,30 @@
       <c r="L14">
         <v>5</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N14" s="11">
+      <c r="M14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N14" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
-        <v>71</v>
+      <c r="A15" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>251</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="5">
         <v>6</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="11">
         <v>0</v>
       </c>
       <c r="G15">
@@ -3783,30 +3578,30 @@
       <c r="L15">
         <v>5</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="M15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N15" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>252</v>
+      <c r="A16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2</v>
-      </c>
-      <c r="F16" s="17">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
         <v>0</v>
       </c>
       <c r="G16">
@@ -3827,30 +3622,30 @@
       <c r="L16">
         <v>5</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="M16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N16" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>253</v>
+      <c r="A17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="17">
+        <v>76</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11">
         <v>0</v>
       </c>
       <c r="G17">
@@ -3871,30 +3666,30 @@
       <c r="L17">
         <v>5</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="M17" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N17" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>254</v>
+      <c r="A18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2</v>
-      </c>
-      <c r="F18" s="17">
+        <v>77</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11">
         <v>0</v>
       </c>
       <c r="G18">
@@ -3915,30 +3710,30 @@
       <c r="L18">
         <v>5</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N18" s="11">
+      <c r="M18" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N18" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>255</v>
+      <c r="A19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="11">
-        <v>3</v>
-      </c>
-      <c r="F19" s="17">
+        <v>78</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="11">
         <v>0</v>
       </c>
       <c r="G19">
@@ -3959,30 +3754,30 @@
       <c r="L19">
         <v>5</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="M19" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N19" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>256</v>
+      <c r="A20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="11">
+        <v>79</v>
+      </c>
+      <c r="E20" s="5">
         <v>7</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <v>0</v>
       </c>
       <c r="G20">
@@ -4003,30 +3798,30 @@
       <c r="L20">
         <v>5</v>
       </c>
-      <c r="M20" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N20" s="11">
+      <c r="M20" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N20" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>257</v>
+      <c r="A21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="11">
-        <v>3</v>
-      </c>
-      <c r="F21" s="17">
+        <v>80</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="11">
         <v>0</v>
       </c>
       <c r="G21">
@@ -4047,30 +3842,30 @@
       <c r="L21">
         <v>5</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N21" s="11">
+      <c r="M21" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N21" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>258</v>
+      <c r="A22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="11">
-        <v>3</v>
-      </c>
-      <c r="F22" s="17">
+        <v>81</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="11">
         <v>0</v>
       </c>
       <c r="G22">
@@ -4091,30 +3886,30 @@
       <c r="L22">
         <v>5</v>
       </c>
-      <c r="M22" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N22" s="11">
+      <c r="M22" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N22" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>259</v>
+      <c r="A23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="11">
+        <v>82</v>
+      </c>
+      <c r="E23" s="5">
         <v>8</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <v>4</v>
       </c>
       <c r="G23">
@@ -4135,30 +3930,30 @@
       <c r="L23">
         <v>5</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N23" s="11">
+      <c r="M23" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N23" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>260</v>
+      <c r="A24" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="11">
+        <v>83</v>
+      </c>
+      <c r="E24" s="5">
         <v>8</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="11">
         <v>3</v>
       </c>
       <c r="G24">
@@ -4179,30 +3974,30 @@
       <c r="L24">
         <v>5</v>
       </c>
-      <c r="M24" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N24" s="11">
+      <c r="M24" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N24" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>261</v>
+      <c r="A25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="11">
+        <v>84</v>
+      </c>
+      <c r="E25" s="5">
         <v>8</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <v>6</v>
       </c>
       <c r="G25">
@@ -4223,30 +4018,30 @@
       <c r="L25">
         <v>5</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N25" s="11">
+      <c r="M25" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N25" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>262</v>
+      <c r="A26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="11">
-        <v>5</v>
-      </c>
-      <c r="F26" s="17">
+        <v>85</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="F26" s="11">
         <v>0</v>
       </c>
       <c r="G26">
@@ -4267,30 +4062,30 @@
       <c r="L26">
         <v>5</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N26" s="11">
+      <c r="M26" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N26" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>263</v>
+      <c r="A27" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="11">
-        <v>5</v>
-      </c>
-      <c r="F27" s="17">
+        <v>86</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="F27" s="11">
         <v>0</v>
       </c>
       <c r="G27">
@@ -4311,30 +4106,30 @@
       <c r="L27">
         <v>5</v>
       </c>
-      <c r="M27" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N27" s="11">
+      <c r="M27" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N27" s="5">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>264</v>
+      <c r="A28" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="11">
+        <v>87</v>
+      </c>
+      <c r="E28" s="5">
         <v>7</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="11">
         <v>0</v>
       </c>
       <c r="G28">
@@ -4355,30 +4150,30 @@
       <c r="L28">
         <v>5</v>
       </c>
-      <c r="M28" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N28" s="11">
+      <c r="M28" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N28" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>265</v>
+      <c r="A29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="11">
-        <v>2</v>
-      </c>
-      <c r="F29" s="17">
+        <v>88</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11">
         <v>0</v>
       </c>
       <c r="G29">
@@ -4399,30 +4194,30 @@
       <c r="L29">
         <v>5</v>
       </c>
-      <c r="M29" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N29" s="11">
+      <c r="M29" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N29" s="5">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>266</v>
+      <c r="A30" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="11">
-        <v>2</v>
-      </c>
-      <c r="F30" s="17">
+        <v>89</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="11">
         <v>0</v>
       </c>
       <c r="G30">
@@ -4443,30 +4238,30 @@
       <c r="L30">
         <v>5</v>
       </c>
-      <c r="M30" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N30" s="11">
+      <c r="M30" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N30" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>267</v>
+      <c r="A31" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="11">
-        <v>3</v>
-      </c>
-      <c r="F31" s="17">
+        <v>90</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="11">
         <v>0</v>
       </c>
       <c r="G31">
@@ -4487,30 +4282,30 @@
       <c r="L31">
         <v>5</v>
       </c>
-      <c r="M31" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N31" s="11">
+      <c r="M31" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N31" s="5">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>268</v>
+      <c r="A32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="11">
-        <v>5</v>
-      </c>
-      <c r="F32" s="17">
+        <v>91</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5</v>
+      </c>
+      <c r="F32" s="11">
         <v>4</v>
       </c>
       <c r="G32">
@@ -4531,30 +4326,30 @@
       <c r="L32">
         <v>5</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N32" s="11">
+      <c r="M32" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N32" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>269</v>
+      <c r="A33" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="11">
+        <v>92</v>
+      </c>
+      <c r="E33" s="5">
         <v>10</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="11">
         <v>3</v>
       </c>
       <c r="G33">
@@ -4575,30 +4370,30 @@
       <c r="L33">
         <v>5</v>
       </c>
-      <c r="M33" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N33" s="11">
+      <c r="M33" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N33" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>270</v>
+      <c r="A34" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="11">
+        <v>93</v>
+      </c>
+      <c r="E34" s="5">
         <v>10</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="11">
         <v>6</v>
       </c>
       <c r="G34">
@@ -4619,30 +4414,30 @@
       <c r="L34">
         <v>5</v>
       </c>
-      <c r="M34" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N34" s="11">
+      <c r="M34" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N34" s="5">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>271</v>
+      <c r="A35" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="11">
-        <v>2</v>
-      </c>
-      <c r="F35" s="17">
+        <v>94</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="11">
         <v>0</v>
       </c>
       <c r="G35">
@@ -4663,30 +4458,30 @@
       <c r="L35">
         <v>5</v>
       </c>
-      <c r="M35" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N35" s="11">
+      <c r="M35" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N35" s="5">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>272</v>
+      <c r="A36" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="11">
-        <v>2</v>
-      </c>
-      <c r="F36" s="17">
+        <v>95</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
+      <c r="F36" s="11">
         <v>0</v>
       </c>
       <c r="G36">
@@ -4707,30 +4502,30 @@
       <c r="L36">
         <v>5</v>
       </c>
-      <c r="M36" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N36" s="11">
+      <c r="M36" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N36" s="5">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>273</v>
+      <c r="A37" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="11">
+        <v>96</v>
+      </c>
+      <c r="E37" s="5">
         <v>6</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="11">
         <v>0</v>
       </c>
       <c r="G37">
@@ -4751,30 +4546,30 @@
       <c r="L37">
         <v>5</v>
       </c>
-      <c r="M37" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N37" s="11">
+      <c r="M37" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N37" s="5">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>274</v>
+      <c r="A38" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="11">
+        <v>97</v>
+      </c>
+      <c r="E38" s="5">
         <v>6</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="11">
         <v>0</v>
       </c>
       <c r="G38">
@@ -4795,30 +4590,30 @@
       <c r="L38">
         <v>5</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N38" s="11">
+      <c r="M38" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N38" s="5">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>275</v>
+      <c r="A39" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="11">
-        <v>4</v>
-      </c>
-      <c r="F39" s="17">
+        <v>98</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4</v>
+      </c>
+      <c r="F39" s="11">
         <v>0</v>
       </c>
       <c r="G39">
@@ -4839,30 +4634,30 @@
       <c r="L39">
         <v>5</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N39" s="11">
+      <c r="M39" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N39" s="5">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>276</v>
+      <c r="A40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="11">
-        <v>4</v>
-      </c>
-      <c r="F40" s="17">
+        <v>99</v>
+      </c>
+      <c r="E40" s="5">
+        <v>4</v>
+      </c>
+      <c r="F40" s="11">
         <v>0</v>
       </c>
       <c r="G40">
@@ -4883,30 +4678,30 @@
       <c r="L40">
         <v>5</v>
       </c>
-      <c r="M40" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N40" s="11">
+      <c r="M40" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N40" s="5">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="13" t="s">
-        <v>229</v>
+      <c r="A41" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>277</v>
+        <v>140</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="11">
+        <v>100</v>
+      </c>
+      <c r="E41" s="5">
         <v>15</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="11">
         <v>7</v>
       </c>
       <c r="G41">
@@ -4927,30 +4722,30 @@
       <c r="L41">
         <v>5</v>
       </c>
-      <c r="M41" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N41" s="11">
+      <c r="M41" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N41" s="5">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
-        <v>230</v>
+      <c r="A42" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>278</v>
+        <v>141</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" s="11">
+        <v>101</v>
+      </c>
+      <c r="E42" s="5">
         <v>15</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="11">
         <v>5</v>
       </c>
       <c r="G42">
@@ -4971,30 +4766,30 @@
       <c r="L42">
         <v>5</v>
       </c>
-      <c r="M42" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N42" s="11">
+      <c r="M42" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N42" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="13" t="s">
-        <v>231</v>
+      <c r="A43" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>279</v>
+        <v>142</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="11">
+        <v>102</v>
+      </c>
+      <c r="E43" s="5">
         <v>8</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="11">
         <v>0</v>
       </c>
       <c r="G43">
@@ -5015,30 +4810,30 @@
       <c r="L43">
         <v>5</v>
       </c>
-      <c r="M43" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N43" s="11">
+      <c r="M43" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N43" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="13" t="s">
-        <v>232</v>
+      <c r="A44" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>280</v>
+        <v>143</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="11">
+        <v>103</v>
+      </c>
+      <c r="E44" s="5">
         <v>8</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="11">
         <v>0</v>
       </c>
       <c r="G44">
@@ -5059,30 +4854,30 @@
       <c r="L44">
         <v>5</v>
       </c>
-      <c r="M44" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N44" s="11">
+      <c r="M44" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N44" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
-        <v>233</v>
+      <c r="A45" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>281</v>
+        <v>144</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="11">
+        <v>104</v>
+      </c>
+      <c r="E45" s="5">
         <v>8</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="11">
         <v>0</v>
       </c>
       <c r="G45">
@@ -5103,30 +4898,30 @@
       <c r="L45">
         <v>5</v>
       </c>
-      <c r="M45" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N45" s="11">
+      <c r="M45" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N45" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
-        <v>234</v>
+      <c r="A46" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>282</v>
+        <v>145</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="11">
+        <v>105</v>
+      </c>
+      <c r="E46" s="5">
         <v>8</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="11">
         <v>2</v>
       </c>
       <c r="G46">
@@ -5147,30 +4942,30 @@
       <c r="L46">
         <v>5</v>
       </c>
-      <c r="M46" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N46" s="11">
+      <c r="M46" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N46" s="5">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="13" t="s">
-        <v>235</v>
+      <c r="A47" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>283</v>
+        <v>146</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="11">
+        <v>106</v>
+      </c>
+      <c r="E47" s="5">
         <v>8</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="11">
         <v>1</v>
       </c>
       <c r="G47">
@@ -5191,30 +4986,30 @@
       <c r="L47">
         <v>5</v>
       </c>
-      <c r="M47" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N47" s="11">
+      <c r="M47" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N47" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="13" t="s">
-        <v>236</v>
+      <c r="A48" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>284</v>
+        <v>147</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="11">
-        <v>5</v>
-      </c>
-      <c r="F48" s="17">
+        <v>107</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
+      <c r="F48" s="11">
         <v>0</v>
       </c>
       <c r="G48">
@@ -5235,30 +5030,30 @@
       <c r="L48">
         <v>5</v>
       </c>
-      <c r="M48" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N48" s="11">
+      <c r="M48" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N48" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="13" t="s">
-        <v>237</v>
+      <c r="A49" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>285</v>
+        <v>148</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" s="11">
-        <v>5</v>
-      </c>
-      <c r="F49" s="17">
+        <v>108</v>
+      </c>
+      <c r="E49" s="5">
+        <v>5</v>
+      </c>
+      <c r="F49" s="11">
         <v>0</v>
       </c>
       <c r="G49">
@@ -5279,10 +5074,10 @@
       <c r="L49">
         <v>5</v>
       </c>
-      <c r="M49" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N49" s="11">
+      <c r="M49" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N49" s="5">
         <v>56</v>
       </c>
     </row>
@@ -5292,224 +5087,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="9">
-        <v>10400000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="9">
-        <v>10500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="9">
-        <v>11500000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="9">
-        <v>10600000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="9">
-        <v>11600000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="9">
-        <v>10700000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="9">
-        <v>11700000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="9">
-        <v>11730000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="9">
-        <v>22510000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="9">
-        <v>22520000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="9">
-        <v>22530000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="9">
-        <v>22710000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="9">
-        <v>22720000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="9">
-        <v>22730000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="9">
-        <v>15500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DataConvert/bin/Debug/策划/xlsx/数值/test.xlsx
+++ b/DataConvert/bin/Debug/策划/xlsx/数值/test.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="57165" yWindow="-15" windowWidth="24135" windowHeight="12675" tabRatio="872" activeTab="3"/>
+    <workbookView xWindow="57165" yWindow="-15" windowWidth="24135" windowHeight="12675" tabRatio="872" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置信息" sheetId="11" r:id="rId1"/>
     <sheet name="item" sheetId="9" r:id="rId2"/>
-    <sheet name="itemEffect" sheetId="19" r:id="rId3"/>
-    <sheet name="material" sheetId="6" r:id="rId4"/>
+    <sheet name="material" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,10 +29,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Chick</author>
-    <author>XiTongTianDi</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,199 +48,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>XiTongTianDi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-指向关卡id</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>XiTongTianDi</author>
-    <author>Chick</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>XiTongTianDi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.恢复血量
-2.恢复抗性
-3.增加捕获概率
-4.增加稀有道具概率
-5.激活触发属性</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>XiTongTianDi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0，结算时
-1，一次性使用
-2，按回合
-3，按时间</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Chick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-当时间模式为2时，单位是回合
-当时间模式为3时，单位是秒
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>XiTongTianDi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.地
-2.电
-3.水
-4.毒
-5.钢
-6.火
-7.龙
--1.所有属性
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>XiTongTianDi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.地
-2.电
-3.水
-4.毒
-5.钢
-6.火
-7.龙</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Chick</author>
@@ -337,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="284">
   <si>
     <t>素材ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,526 +339,761 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>道具名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11600010_png</t>
+  </si>
+  <si>
+    <t>11600001_png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11600003_png</t>
+  </si>
+  <si>
+    <t>11600007_png</t>
+  </si>
+  <si>
+    <t>11600005_png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11600008_png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11600002_png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11600006_png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11600009_png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11600004_png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getway1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取途径1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getway2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getway3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getway4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getway5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取途径2</t>
+  </si>
+  <si>
+    <t>获取途径3</t>
+  </si>
+  <si>
+    <t>获取途径4</t>
+  </si>
+  <si>
+    <t>获取途径5</t>
+  </si>
+  <si>
+    <t>addPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加合成的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11400014_png</t>
+  </si>
+  <si>
+    <t>11400015_png</t>
+  </si>
+  <si>
+    <t>11400016_png</t>
+  </si>
+  <si>
+    <t>11400017_png</t>
+  </si>
+  <si>
+    <t>11400018_png</t>
+  </si>
+  <si>
+    <t>11400019_png</t>
+  </si>
+  <si>
+    <t>11400020_png</t>
+  </si>
+  <si>
+    <t>11400021_png</t>
+  </si>
+  <si>
+    <t>11400022_png</t>
+  </si>
+  <si>
+    <t>11400023_png</t>
+  </si>
+  <si>
+    <t>11400024_png</t>
+  </si>
+  <si>
+    <t>11400025_png</t>
+  </si>
+  <si>
+    <t>11400026_png</t>
+  </si>
+  <si>
+    <t>11400027_png</t>
+  </si>
+  <si>
+    <t>11400028_png</t>
+  </si>
+  <si>
+    <t>11400029_png</t>
+  </si>
+  <si>
+    <t>11400030_png</t>
+  </si>
+  <si>
+    <t>11400031_png</t>
+  </si>
+  <si>
+    <t>11400032_png</t>
+  </si>
+  <si>
+    <t>11400033_png</t>
+  </si>
+  <si>
+    <t>11400034_png</t>
+  </si>
+  <si>
+    <t>11400035_png</t>
+  </si>
+  <si>
+    <t>11400036_png</t>
+  </si>
+  <si>
+    <t>11400037_png</t>
+  </si>
+  <si>
+    <t>11400038_png</t>
+  </si>
+  <si>
+    <t>11400039_png</t>
+  </si>
+  <si>
+    <t>11400040_png</t>
+  </si>
+  <si>
+    <t>11400041_png</t>
+  </si>
+  <si>
+    <t>11400042_png</t>
+  </si>
+  <si>
+    <t>11400043_png</t>
+  </si>
+  <si>
+    <t>11400044_png</t>
+  </si>
+  <si>
+    <t>11400045_png</t>
+  </si>
+  <si>
+    <t>11400046_png</t>
+  </si>
+  <si>
+    <t>11400047_png</t>
+  </si>
+  <si>
+    <t>未知素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌晨露水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶枝草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小香菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通兽蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠石粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻石粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜗壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟兽的腿肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青苔石盘碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海螺壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟兽大块肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘴毒凝汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻夜海清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔铁浓浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿原石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳石晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楔石盘碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮血菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒凝菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨叶山草菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚脂黏菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海魂珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼燃珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫荆草枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜莺草枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花红兽蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草绿兽蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅色皮草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青绿皮草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鳞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极钢石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色试剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色试剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色试剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淬空磁粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙洲幻剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浊硝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清硝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活魔法曾是一种禁忌，直到战争利剑砍断了禁忌枷锁。使用后复活一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未被定义的素材均源自于一场被遗忘的灾难。   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">经过海浪千年的冲刷，尸骨被打磨成了璀璨的细沙。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优秀的魔法载体，因为廉价在在法师之间颇为流行。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一块优质的兽肉常常意味着一场关乎性命的危险战斗。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿晶石上的晶莹晨露，洋溢着大地与生命的原始气息。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">把魔力禁锢于外壳中，是用于构筑魔法石的常用材料。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">工具也是一种材料，骨头代表着死亡，死亡意味着的开端。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">常见的草料，因清香的味道而在民间广为流行。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔物死去后的结晶，封印着主人生前使用的魔法属性。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">生命力极强的小香菇在发霉的仓库中随处可见。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">经过风沙打磨的锋利石片，传说寄宿着砂石的灵力。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">对魔法合成疯狂的追求让许多野兽逐渐绝迹。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">寄宿着生命原力，被牺牲后只剩下了不经世事的灵魂。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">昂贵的粉末让法师望而却步，但其销量却在逐年增长。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">幻术魔法的关键素材，是众多幻术师沉迷致死的元凶。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">水元素的代表，有人能通过它听到来自于地狱的召唤。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“美味”的魔法元素，每一份鸟兽腿肉都来之不易。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">某些青苔石盘记录着失传的魔法，许多法师对其趋之若鹜。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">沉睡于深海的螺壳让人发狂，里面除了“虚空”一无所有。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">没人记得清鸟兽的来源。高阶法师也对那场事故三缄其口。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">树妖每三十年分泌一次。采集的人大多死于非命。   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">幻海可遇不可求，活下来的人才有机会带出一瓶。   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">法师除外，多数人在打开瓶子的瞬间就被烧焦了。   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">原始金矿比提炼后的金块更加昂贵，一切源于魔石的合成。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">经过魔法火焰炙烤而合成。因剔除了杂质而显得晶莹剔透。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">古人用于占星的楔石盘具因寄宿这命运之力而让人恐惧。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">生长于战场，以哀嚎声和血液为食，长势好反而令人恐惧。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用后让人体温骤降，可取人性命。是一种危险的菇类。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">它的价值并不及药用，如何使用对法师来说也是一种考验。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">它的使用要追溯到15年前，一位高阶法师被抬上了绞刑架。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶包裹着海妖的灵魂，它们绝迹的原因早已消逝在风中。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶包裹着炎魔的灵魂，它们绝迹的原因早已消逝在风中。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">死去树妖的一部分，每一根毒刺都涂满了毒药。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">幻海发生地会长出夜莺草，是罕见的幻之植物。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">法师培育了花红兽，它的蛋却沦为了素材。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">法师培育了绿草兽，它的蛋却沦为了素材。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">寄宿着炎之力的皮毛让狐妖与法师处于对立关系。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">寄宿着大地之力的皮毛让草原熊与法师处于对立关系。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">战争早已落下帷幕，鳞片预示着龙族的伤痕。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">能穿透龙鳞的金属，预示着人类崛起  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">法师用于合成魔法石的常用试剂，常用于稀释水元素。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">法师用于合成魔法石的常用试剂，常用于稀释土元素。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">法师用于合成魔法石的常用试剂，常用于稀释毒元素。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">诞生于虚空，是古代浮空魔法的重要组成。   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">幻剂被认为是进入“海市蜃楼”秘境的关键所在。   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炼狱之火能吞噬意志脆弱之人。产生的火焰是地狱的信标。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">幽魂之火能吞噬意志薄弱之人。产生的火焰是冥界的信标。 </t>
+  </si>
+  <si>
+    <t>attr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemEffect</t>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果不仅美味，食用后回复的少量魔法抗性才是其备受关注的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法师补充体力的常见套餐。食用后恢复少量HP与魔法抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法给予人们以慰藉，祈祷的力量源于内心。使用后稀有道具获得率提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法兽夹与魔物的共鸣让猎杀行业兴盛不衰。使用后怪物捕获的几率提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条看不见的纽带维系着人类与魔物的关系。使用后扩建宠物园一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师们疯狂地扩建仓库沉溺于魔法的研究。使用后扩建一次仓库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说洋溢着魔力的药水会令人无法自拔。使用后回复大量HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激烈的战斗为这些小药丸提供了巨大的市场。使用后回复少量HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用魔法火焰烹制的美味令人上瘾。食用后恢复中量HP与魔法抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mallDesc</t>
+  </si>
+  <si>
+    <t>mallPrice</t>
+  </si>
+  <si>
+    <t>商城描述</t>
+  </si>
+  <si>
+    <t>商城价格</t>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>3013</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t>3015</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>3018</t>
+  </si>
+  <si>
+    <t>3019</t>
+  </si>
+  <si>
+    <t>3020</t>
+  </si>
+  <si>
+    <t>3021</t>
+  </si>
+  <si>
+    <t>3022</t>
+  </si>
+  <si>
+    <t>3023</t>
+  </si>
+  <si>
+    <t>3024</t>
+  </si>
+  <si>
+    <t>3025</t>
+  </si>
+  <si>
+    <t>3026</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>3029</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>3031</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>3033</t>
+  </si>
+  <si>
+    <t>3034</t>
+  </si>
+  <si>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>3036</t>
+  </si>
+  <si>
+    <t>3037</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>3039</t>
+  </si>
+  <si>
+    <t>3040</t>
+  </si>
+  <si>
+    <t>3041</t>
+  </si>
+  <si>
+    <t>3042</t>
+  </si>
+  <si>
+    <t>3043</t>
+  </si>
+  <si>
+    <t>3044</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>3047</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道具名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11600010_png</t>
-  </si>
-  <si>
-    <t>11600001_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11600003_png</t>
-  </si>
-  <si>
-    <t>11600007_png</t>
-  </si>
-  <si>
-    <t>11600005_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11600008_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11600002_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11600006_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11600009_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11600004_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getway1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取途径1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getway2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getway3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getway4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getway5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取途径2</t>
-  </si>
-  <si>
-    <t>获取途径3</t>
-  </si>
-  <si>
-    <t>获取途径4</t>
-  </si>
-  <si>
-    <t>获取途径5</t>
-  </si>
-  <si>
-    <t>addPro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加合成的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11400014_png</t>
-  </si>
-  <si>
-    <t>11400015_png</t>
-  </si>
-  <si>
-    <t>11400016_png</t>
-  </si>
-  <si>
-    <t>11400017_png</t>
-  </si>
-  <si>
-    <t>11400018_png</t>
-  </si>
-  <si>
-    <t>11400019_png</t>
-  </si>
-  <si>
-    <t>11400020_png</t>
-  </si>
-  <si>
-    <t>11400021_png</t>
-  </si>
-  <si>
-    <t>11400022_png</t>
-  </si>
-  <si>
-    <t>11400023_png</t>
-  </si>
-  <si>
-    <t>11400024_png</t>
-  </si>
-  <si>
-    <t>11400025_png</t>
-  </si>
-  <si>
-    <t>11400026_png</t>
-  </si>
-  <si>
-    <t>11400027_png</t>
-  </si>
-  <si>
-    <t>11400028_png</t>
-  </si>
-  <si>
-    <t>11400029_png</t>
-  </si>
-  <si>
-    <t>11400030_png</t>
-  </si>
-  <si>
-    <t>11400031_png</t>
-  </si>
-  <si>
-    <t>11400032_png</t>
-  </si>
-  <si>
-    <t>11400033_png</t>
-  </si>
-  <si>
-    <t>11400034_png</t>
-  </si>
-  <si>
-    <t>11400035_png</t>
-  </si>
-  <si>
-    <t>11400036_png</t>
-  </si>
-  <si>
-    <t>11400037_png</t>
-  </si>
-  <si>
-    <t>11400038_png</t>
-  </si>
-  <si>
-    <t>11400039_png</t>
-  </si>
-  <si>
-    <t>11400040_png</t>
-  </si>
-  <si>
-    <t>11400041_png</t>
-  </si>
-  <si>
-    <t>11400042_png</t>
-  </si>
-  <si>
-    <t>11400043_png</t>
-  </si>
-  <si>
-    <t>11400044_png</t>
-  </si>
-  <si>
-    <t>11400045_png</t>
-  </si>
-  <si>
-    <t>11400046_png</t>
-  </si>
-  <si>
-    <t>11400047_png</t>
-  </si>
-  <si>
-    <t>未知素材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌晨露水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶枝草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小香菇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通兽蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠石粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻石粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜗壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟兽的腿肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青苔石盘碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海螺壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟兽大块肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘴毒凝汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻夜海清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔铁浓浆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金矿原石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳石晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楔石盘碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮血菌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒凝菌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨叶山草菌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚脂黏菌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海魂珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼燃珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫荆草枝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜莺草枝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花红兽蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草绿兽蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅色皮草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青绿皮草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙鳞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极钢石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色试剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色试剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色试剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淬空磁粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙洲幻剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浊硝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清硝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活魔法曾是一种禁忌，直到战争利剑砍断了禁忌枷锁。使用后复活一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">未被定义的素材均源自于一场被遗忘的灾难。   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">经过海浪千年的冲刷，尸骨被打磨成了璀璨的细沙。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">优秀的魔法载体，因为廉价在在法师之间颇为流行。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">一块优质的兽肉常常意味着一场关乎性命的危险战斗。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">绿晶石上的晶莹晨露，洋溢着大地与生命的原始气息。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">把魔力禁锢于外壳中，是用于构筑魔法石的常用材料。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">工具也是一种材料，骨头代表着死亡，死亡意味着的开端。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">常见的草料，因清香的味道而在民间广为流行。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔物死去后的结晶，封印着主人生前使用的魔法属性。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">生命力极强的小香菇在发霉的仓库中随处可见。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">经过风沙打磨的锋利石片，传说寄宿着砂石的灵力。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">对魔法合成疯狂的追求让许多野兽逐渐绝迹。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">寄宿着生命原力，被牺牲后只剩下了不经世事的灵魂。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">昂贵的粉末让法师望而却步，但其销量却在逐年增长。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">幻术魔法的关键素材，是众多幻术师沉迷致死的元凶。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">水元素的代表，有人能通过它听到来自于地狱的召唤。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“美味”的魔法元素，每一份鸟兽腿肉都来之不易。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">某些青苔石盘记录着失传的魔法，许多法师对其趋之若鹜。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">沉睡于深海的螺壳让人发狂，里面除了“虚空”一无所有。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">没人记得清鸟兽的来源。高阶法师也对那场事故三缄其口。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">树妖每三十年分泌一次。采集的人大多死于非命。   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">幻海可遇不可求，活下来的人才有机会带出一瓶。   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">法师除外，多数人在打开瓶子的瞬间就被烧焦了。   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">原始金矿比提炼后的金块更加昂贵，一切源于魔石的合成。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">经过魔法火焰炙烤而合成。因剔除了杂质而显得晶莹剔透。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">古人用于占星的楔石盘具因寄宿这命运之力而让人恐惧。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">生长于战场，以哀嚎声和血液为食，长势好反而令人恐惧。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用后让人体温骤降，可取人性命。是一种危险的菇类。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">它的价值并不及药用，如何使用对法师来说也是一种考验。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">它的使用要追溯到15年前，一位高阶法师被抬上了绞刑架。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶包裹着海妖的灵魂，它们绝迹的原因早已消逝在风中。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶包裹着炎魔的灵魂，它们绝迹的原因早已消逝在风中。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">死去树妖的一部分，每一根毒刺都涂满了毒药。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">幻海发生地会长出夜莺草，是罕见的幻之植物。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">法师培育了花红兽，它的蛋却沦为了素材。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">法师培育了绿草兽，它的蛋却沦为了素材。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">寄宿着炎之力的皮毛让狐妖与法师处于对立关系。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">寄宿着大地之力的皮毛让草原熊与法师处于对立关系。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">战争早已落下帷幕，鳞片预示着龙族的伤痕。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">能穿透龙鳞的金属，预示着人类崛起  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">法师用于合成魔法石的常用试剂，常用于稀释水元素。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">法师用于合成魔法石的常用试剂，常用于稀释土元素。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">法师用于合成魔法石的常用试剂，常用于稀释毒元素。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">诞生于虚空，是古代浮空魔法的重要组成。   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">幻剂被认为是进入“海市蜃楼”秘境的关键所在。   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">炼狱之火能吞噬意志脆弱之人。产生的火焰是地狱的信标。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">幽魂之火能吞噬意志薄弱之人。产生的火焰是冥界的信标。 </t>
-  </si>
-  <si>
-    <t>attr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemEffect</t>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mallPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1056,299 +1101,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openAttr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复抗性类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复抗性抗性值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有道具获得概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物捕获率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果不仅美味，食用后回复的少量魔法抗性才是其备受关注的原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法师补充体力的常见套餐。食用后恢复少量HP与魔法抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法给予人们以慰藉，祈祷的力量源于内心。使用后稀有道具获得率提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法兽夹与魔物的共鸣让猎杀行业兴盛不衰。使用后怪物捕获的几率提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一条看不见的纽带维系着人类与魔物的关系。使用后扩建宠物园一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师们疯狂地扩建仓库沉溺于魔法的研究。使用后扩建一次仓库。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说洋溢着魔力的药水会令人无法自拔。使用后回复大量HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激烈的战斗为这些小药丸提供了巨大的市场。使用后回复少量HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用魔法火焰烹制的美味令人上瘾。食用后恢复中量HP与魔法抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mallDesc</t>
-  </si>
-  <si>
-    <t>mallPrice</t>
-  </si>
-  <si>
-    <t>商城描述</t>
-  </si>
-  <si>
-    <t>商城价格</t>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3003</t>
-  </si>
-  <si>
-    <t>3004</t>
-  </si>
-  <si>
-    <t>3005</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>3007</t>
-  </si>
-  <si>
-    <t>3008</t>
-  </si>
-  <si>
-    <t>3009</t>
-  </si>
-  <si>
-    <t>3010</t>
-  </si>
-  <si>
-    <t>3011</t>
-  </si>
-  <si>
-    <t>3012</t>
-  </si>
-  <si>
-    <t>3013</t>
-  </si>
-  <si>
-    <t>3014</t>
-  </si>
-  <si>
-    <t>3015</t>
-  </si>
-  <si>
-    <t>3016</t>
-  </si>
-  <si>
-    <t>3017</t>
-  </si>
-  <si>
-    <t>3018</t>
-  </si>
-  <si>
-    <t>3019</t>
-  </si>
-  <si>
-    <t>3020</t>
-  </si>
-  <si>
-    <t>3021</t>
-  </si>
-  <si>
-    <t>3022</t>
-  </si>
-  <si>
-    <t>3023</t>
-  </si>
-  <si>
-    <t>3024</t>
-  </si>
-  <si>
-    <t>3025</t>
-  </si>
-  <si>
-    <t>3026</t>
-  </si>
-  <si>
-    <t>3027</t>
-  </si>
-  <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>3029</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>3031</t>
-  </si>
-  <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>3033</t>
-  </si>
-  <si>
-    <t>3034</t>
-  </si>
-  <si>
-    <t>3035</t>
-  </si>
-  <si>
-    <t>3036</t>
-  </si>
-  <si>
-    <t>3037</t>
-  </si>
-  <si>
-    <t>3038</t>
-  </si>
-  <si>
-    <t>3039</t>
-  </si>
-  <si>
-    <t>3040</t>
-  </si>
-  <si>
-    <t>3041</t>
-  </si>
-  <si>
-    <t>3042</t>
-  </si>
-  <si>
-    <t>3043</t>
-  </si>
-  <si>
-    <t>3044</t>
-  </si>
-  <si>
-    <t>3045</t>
-  </si>
-  <si>
-    <t>3046</t>
-  </si>
-  <si>
-    <t>3047</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>began</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1421,7 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,11 +1251,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,7 +1546,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1829,16 +1600,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>199</v>
-      </c>
-      <c r="B4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1850,510 +1621,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="67.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G12">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>234</v>
-      </c>
-      <c r="M4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>234</v>
-      </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="5">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>234</v>
-      </c>
-      <c r="M6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F14">
         <v>60</v>
       </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>234</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>234</v>
-      </c>
-      <c r="M9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" s="5">
-        <v>6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>234</v>
-      </c>
-      <c r="M10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11" s="5">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
-        <v>234</v>
-      </c>
-      <c r="M11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12">
-        <v>60</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>234</v>
-      </c>
-      <c r="M12">
+      <c r="G14">
         <v>19</v>
       </c>
     </row>
@@ -2367,549 +1946,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="9" style="13"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>50</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>200</v>
-      </c>
-      <c r="F4" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>50</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>700</v>
-      </c>
-      <c r="F5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>70</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>30</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>50</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>200</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="5">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="5">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="5">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2939,34 +1980,34 @@
         <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -2983,45 +2024,45 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -3051,7 +2092,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N3" s="5">
         <v>10</v>
@@ -3059,13 +2100,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -3095,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N4" s="5">
         <v>11</v>
@@ -3103,13 +2144,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -3139,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N5" s="5">
         <v>12</v>
@@ -3147,13 +2188,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -3183,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N6" s="5">
         <v>13</v>
@@ -3191,13 +2232,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -3227,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N7" s="5">
         <v>14</v>
@@ -3235,13 +2276,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -3271,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N8" s="5">
         <v>15</v>
@@ -3279,13 +2320,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -3315,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N9" s="5">
         <v>16</v>
@@ -3323,13 +2364,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -3359,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N10" s="5">
         <v>17</v>
@@ -3367,13 +2408,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -3403,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N11" s="5">
         <v>18</v>
@@ -3411,13 +2452,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -3447,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N12" s="5">
         <v>19</v>
@@ -3455,13 +2496,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -3491,7 +2532,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N13" s="5">
         <v>20</v>
@@ -3499,13 +2540,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -3535,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N14" s="5">
         <v>21</v>
@@ -3543,13 +2584,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -3579,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N15" s="5">
         <v>22</v>
@@ -3587,16 +2628,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>
@@ -3623,7 +2664,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N16" s="5">
         <v>23</v>
@@ -3631,16 +2672,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="5">
         <v>2</v>
@@ -3667,7 +2708,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N17" s="5">
         <v>24</v>
@@ -3675,16 +2716,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5">
         <v>2</v>
@@ -3711,7 +2752,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N18" s="5">
         <v>25</v>
@@ -3719,16 +2760,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="5">
         <v>3</v>
@@ -3755,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N19" s="5">
         <v>26</v>
@@ -3763,16 +2804,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5">
         <v>7</v>
@@ -3799,7 +2840,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N20" s="5">
         <v>27</v>
@@ -3807,16 +2848,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="5">
         <v>3</v>
@@ -3843,7 +2884,7 @@
         <v>5</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N21" s="5">
         <v>28</v>
@@ -3851,16 +2892,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="5">
         <v>3</v>
@@ -3887,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N22" s="5">
         <v>29</v>
@@ -3895,16 +2936,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="5">
         <v>8</v>
@@ -3931,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N23" s="5">
         <v>30</v>
@@ -3939,16 +2980,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5">
         <v>8</v>
@@ -3975,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N24" s="5">
         <v>31</v>
@@ -3983,16 +3024,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="5">
         <v>8</v>
@@ -4019,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N25" s="5">
         <v>32</v>
@@ -4027,16 +3068,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="5">
         <v>5</v>
@@ -4063,7 +3104,7 @@
         <v>5</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N26" s="5">
         <v>33</v>
@@ -4071,16 +3112,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="5">
         <v>5</v>
@@ -4107,7 +3148,7 @@
         <v>5</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N27" s="5">
         <v>34</v>
@@ -4115,16 +3156,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="5">
         <v>7</v>
@@ -4151,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N28" s="5">
         <v>35</v>
@@ -4159,16 +3200,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="5">
         <v>2</v>
@@ -4195,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N29" s="5">
         <v>36</v>
@@ -4203,16 +3244,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="5">
         <v>2</v>
@@ -4239,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N30" s="5">
         <v>37</v>
@@ -4247,16 +3288,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="5">
         <v>3</v>
@@ -4283,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N31" s="5">
         <v>38</v>
@@ -4291,16 +3332,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -4327,7 +3368,7 @@
         <v>5</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N32" s="5">
         <v>39</v>
@@ -4335,16 +3376,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="5">
         <v>10</v>
@@ -4371,7 +3412,7 @@
         <v>5</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N33" s="5">
         <v>40</v>
@@ -4379,16 +3420,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="5">
         <v>10</v>
@@ -4415,7 +3456,7 @@
         <v>5</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N34" s="5">
         <v>41</v>
@@ -4423,16 +3464,16 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="5">
         <v>2</v>
@@ -4459,7 +3500,7 @@
         <v>5</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N35" s="5">
         <v>42</v>
@@ -4467,16 +3508,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" s="5">
         <v>2</v>
@@ -4503,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N36" s="5">
         <v>43</v>
@@ -4511,16 +3552,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" s="5">
         <v>6</v>
@@ -4547,7 +3588,7 @@
         <v>5</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N37" s="5">
         <v>44</v>
@@ -4555,16 +3596,16 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="5">
         <v>6</v>
@@ -4591,7 +3632,7 @@
         <v>5</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N38" s="5">
         <v>45</v>
@@ -4599,16 +3640,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="5">
         <v>4</v>
@@ -4635,7 +3676,7 @@
         <v>5</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N39" s="5">
         <v>46</v>
@@ -4643,16 +3684,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="5">
         <v>4</v>
@@ -4679,7 +3720,7 @@
         <v>5</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N40" s="5">
         <v>47</v>
@@ -4687,16 +3728,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="5">
         <v>15</v>
@@ -4723,7 +3764,7 @@
         <v>5</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N41" s="5">
         <v>48</v>
@@ -4731,16 +3772,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="5">
         <v>15</v>
@@ -4767,7 +3808,7 @@
         <v>5</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N42" s="5">
         <v>49</v>
@@ -4775,16 +3816,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" s="5">
         <v>8</v>
@@ -4811,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N43" s="5">
         <v>50</v>
@@ -4819,16 +3860,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="5">
         <v>8</v>
@@ -4855,7 +3896,7 @@
         <v>5</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N44" s="5">
         <v>51</v>
@@ -4863,16 +3904,16 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="5">
         <v>8</v>
@@ -4899,7 +3940,7 @@
         <v>5</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N45" s="5">
         <v>52</v>
@@ -4907,16 +3948,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" s="5">
         <v>8</v>
@@ -4943,7 +3984,7 @@
         <v>5</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N46" s="5">
         <v>53</v>
@@ -4951,16 +3992,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" s="5">
         <v>8</v>
@@ -4987,7 +4028,7 @@
         <v>5</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N47" s="5">
         <v>54</v>
@@ -4995,16 +4036,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" s="5">
         <v>5</v>
@@ -5031,7 +4072,7 @@
         <v>5</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N48" s="5">
         <v>55</v>
@@ -5039,16 +4080,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="5">
         <v>5</v>
@@ -5075,7 +4116,7 @@
         <v>5</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N49" s="5">
         <v>56</v>

--- a/DataConvert/bin/Debug/策划/xlsx/数值/test.xlsx
+++ b/DataConvert/bin/Debug/策划/xlsx/数值/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="57165" yWindow="-15" windowWidth="24135" windowHeight="12675" tabRatio="872" activeTab="2"/>
+    <workbookView xWindow="57165" yWindow="-15" windowWidth="24135" windowHeight="12675" tabRatio="872"/>
   </bookViews>
   <sheets>
     <sheet name="配置信息" sheetId="11" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="279">
   <si>
     <t>素材ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>material</t>
   </si>
   <si>
@@ -212,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道具表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,17 +828,6 @@
   </si>
   <si>
     <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemEffect</t>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1543,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1564,52 +1545,24 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1640,36 +1593,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -1678,21 +1631,21 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -1704,18 +1657,18 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1724,27 +1677,27 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1755,16 +1708,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>30</v>
@@ -1775,16 +1728,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -1795,16 +1748,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -1815,16 +1768,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -1835,16 +1788,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -1855,16 +1808,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -1875,16 +1828,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -1895,16 +1848,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>18</v>
@@ -1915,19 +1868,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>60</v>
@@ -1948,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
@@ -1971,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
@@ -1980,34 +1933,34 @@
         <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -2015,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -2024,48 +1977,48 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -2092,7 +2045,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N3" s="5">
         <v>10</v>
@@ -2100,16 +2053,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
@@ -2136,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N4" s="5">
         <v>11</v>
@@ -2144,16 +2097,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -2180,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N5" s="5">
         <v>12</v>
@@ -2188,16 +2141,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5">
         <v>3</v>
@@ -2224,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N6" s="5">
         <v>13</v>
@@ -2232,16 +2185,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5">
         <v>8</v>
@@ -2268,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N7" s="5">
         <v>14</v>
@@ -2276,16 +2229,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5">
         <v>5</v>
@@ -2312,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N8" s="5">
         <v>15</v>
@@ -2320,16 +2273,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -2356,7 +2309,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N9" s="5">
         <v>16</v>
@@ -2364,16 +2317,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
@@ -2400,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N10" s="5">
         <v>17</v>
@@ -2408,16 +2361,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="5">
         <v>10</v>
@@ -2444,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N11" s="5">
         <v>18</v>
@@ -2452,16 +2405,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5">
         <v>2</v>
@@ -2488,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N12" s="5">
         <v>19</v>
@@ -2496,16 +2449,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5">
         <v>7</v>
@@ -2532,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N13" s="5">
         <v>20</v>
@@ -2540,16 +2493,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
@@ -2576,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N14" s="5">
         <v>21</v>
@@ -2584,16 +2537,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5">
         <v>6</v>
@@ -2620,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N15" s="5">
         <v>22</v>
@@ -2628,16 +2581,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>
@@ -2664,7 +2617,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N16" s="5">
         <v>23</v>
@@ -2672,16 +2625,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="5">
         <v>2</v>
@@ -2708,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N17" s="5">
         <v>24</v>
@@ -2716,16 +2669,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="5">
         <v>2</v>
@@ -2752,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N18" s="5">
         <v>25</v>
@@ -2760,16 +2713,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" s="5">
         <v>3</v>
@@ -2796,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N19" s="5">
         <v>26</v>
@@ -2804,16 +2757,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="5">
         <v>7</v>
@@ -2840,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N20" s="5">
         <v>27</v>
@@ -2848,16 +2801,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="5">
         <v>3</v>
@@ -2884,7 +2837,7 @@
         <v>5</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N21" s="5">
         <v>28</v>
@@ -2892,16 +2845,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" s="5">
         <v>3</v>
@@ -2928,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N22" s="5">
         <v>29</v>
@@ -2936,16 +2889,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E23" s="5">
         <v>8</v>
@@ -2972,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N23" s="5">
         <v>30</v>
@@ -2980,16 +2933,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="5">
         <v>8</v>
@@ -3016,7 +2969,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N24" s="5">
         <v>31</v>
@@ -3024,16 +2977,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E25" s="5">
         <v>8</v>
@@ -3060,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N25" s="5">
         <v>32</v>
@@ -3068,16 +3021,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5">
         <v>5</v>
@@ -3104,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N26" s="5">
         <v>33</v>
@@ -3112,16 +3065,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E27" s="5">
         <v>5</v>
@@ -3148,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N27" s="5">
         <v>34</v>
@@ -3156,16 +3109,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" s="5">
         <v>7</v>
@@ -3192,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N28" s="5">
         <v>35</v>
@@ -3200,16 +3153,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29" s="5">
         <v>2</v>
@@ -3236,7 +3189,7 @@
         <v>5</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N29" s="5">
         <v>36</v>
@@ -3244,16 +3197,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="5">
         <v>2</v>
@@ -3280,7 +3233,7 @@
         <v>5</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N30" s="5">
         <v>37</v>
@@ -3288,16 +3241,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="5">
         <v>3</v>
@@ -3324,7 +3277,7 @@
         <v>5</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N31" s="5">
         <v>38</v>
@@ -3332,16 +3285,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3368,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N32" s="5">
         <v>39</v>
@@ -3376,16 +3329,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="5">
         <v>10</v>
@@ -3412,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N33" s="5">
         <v>40</v>
@@ -3420,16 +3373,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E34" s="5">
         <v>10</v>
@@ -3456,7 +3409,7 @@
         <v>5</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N34" s="5">
         <v>41</v>
@@ -3464,16 +3417,16 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E35" s="5">
         <v>2</v>
@@ -3500,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N35" s="5">
         <v>42</v>
@@ -3508,16 +3461,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E36" s="5">
         <v>2</v>
@@ -3544,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N36" s="5">
         <v>43</v>
@@ -3552,16 +3505,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="5">
         <v>6</v>
@@ -3588,7 +3541,7 @@
         <v>5</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N37" s="5">
         <v>44</v>
@@ -3596,16 +3549,16 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E38" s="5">
         <v>6</v>
@@ -3632,7 +3585,7 @@
         <v>5</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N38" s="5">
         <v>45</v>
@@ -3640,16 +3593,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" s="5">
         <v>4</v>
@@ -3676,7 +3629,7 @@
         <v>5</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N39" s="5">
         <v>46</v>
@@ -3684,16 +3637,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E40" s="5">
         <v>4</v>
@@ -3720,7 +3673,7 @@
         <v>5</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N40" s="5">
         <v>47</v>
@@ -3728,16 +3681,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E41" s="5">
         <v>15</v>
@@ -3764,7 +3717,7 @@
         <v>5</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N41" s="5">
         <v>48</v>
@@ -3772,16 +3725,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E42" s="5">
         <v>15</v>
@@ -3808,7 +3761,7 @@
         <v>5</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N42" s="5">
         <v>49</v>
@@ -3816,16 +3769,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E43" s="5">
         <v>8</v>
@@ -3852,7 +3805,7 @@
         <v>5</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N43" s="5">
         <v>50</v>
@@ -3860,16 +3813,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E44" s="5">
         <v>8</v>
@@ -3896,7 +3849,7 @@
         <v>5</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N44" s="5">
         <v>51</v>
@@ -3904,16 +3857,16 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E45" s="5">
         <v>8</v>
@@ -3940,7 +3893,7 @@
         <v>5</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N45" s="5">
         <v>52</v>
@@ -3948,16 +3901,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E46" s="5">
         <v>8</v>
@@ -3984,7 +3937,7 @@
         <v>5</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N46" s="5">
         <v>53</v>
@@ -3992,16 +3945,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" s="5">
         <v>8</v>
@@ -4028,7 +3981,7 @@
         <v>5</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N47" s="5">
         <v>54</v>
@@ -4036,16 +3989,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="5">
         <v>5</v>
@@ -4072,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N48" s="5">
         <v>55</v>
@@ -4080,16 +4033,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E49" s="5">
         <v>5</v>
@@ -4116,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N49" s="5">
         <v>56</v>
